--- a/business-doc/07－执行器产品价格表－模拟关联.xlsx
+++ b/business-doc/07－执行器产品价格表－模拟关联.xlsx
@@ -947,288 +947,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电动执行器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百利二通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT5-1</t>
+  </si>
+  <si>
+    <t>QT10-1</t>
+  </si>
+  <si>
+    <t>QT15-1</t>
+  </si>
+  <si>
+    <t>QT20-1</t>
+  </si>
+  <si>
+    <t>QT30-0.5</t>
+  </si>
+  <si>
+    <t>QT30-1</t>
+  </si>
+  <si>
+    <t>QT40-0.5</t>
+  </si>
+  <si>
+    <t>QT40-1</t>
+  </si>
+  <si>
+    <t>QT60-0.5</t>
+  </si>
+  <si>
+    <t>气动执行器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-DA50</t>
+  </si>
+  <si>
+    <t>KT-DA63</t>
+  </si>
+  <si>
+    <t>KT-DA75</t>
+  </si>
+  <si>
+    <t>KT-DA88</t>
+  </si>
+  <si>
+    <t>KT-DA100</t>
+  </si>
+  <si>
+    <t>KT-DA125</t>
+  </si>
+  <si>
+    <t>KT-DA115</t>
+  </si>
+  <si>
+    <t>KT-DA160</t>
+  </si>
+  <si>
+    <t>KT-DA200</t>
+  </si>
+  <si>
+    <t>KT-DA240</t>
+  </si>
+  <si>
+    <t>KT-DA300</t>
+  </si>
+  <si>
+    <t>KT-DA350</t>
+  </si>
+  <si>
+    <t>KT-DA400</t>
+  </si>
+  <si>
+    <t>KT-SR-50</t>
+  </si>
+  <si>
+    <t>KT-SR-63</t>
+  </si>
+  <si>
+    <t>KT-SR-75</t>
+  </si>
+  <si>
+    <t>KT-SR-88</t>
+  </si>
+  <si>
+    <t>KT-SR-100</t>
+  </si>
+  <si>
+    <t>KT-SR-125</t>
+  </si>
+  <si>
+    <t>KT-SR-160</t>
+  </si>
+  <si>
+    <t>KT-SR-200</t>
+  </si>
+  <si>
+    <t>KT-SR-240</t>
+  </si>
+  <si>
+    <t>KT-SR-300</t>
+  </si>
+  <si>
+    <t>KT-SR-350</t>
+  </si>
+  <si>
+    <t>KT-SR-400</t>
+  </si>
+  <si>
+    <t>KT-SR-145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-SR-270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-DA145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-DA270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M310-08/10</t>
+  </si>
+  <si>
+    <t>电磁阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚德客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M320-08</t>
+  </si>
+  <si>
+    <t>AFC-2000</t>
+  </si>
+  <si>
+    <t>气源三联件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤减压阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFC3000</t>
+  </si>
+  <si>
+    <t>快速接头</t>
+  </si>
+  <si>
+    <t>APL6-01</t>
+  </si>
+  <si>
+    <t>APL6-02</t>
+  </si>
+  <si>
+    <t>APC8-01</t>
+  </si>
+  <si>
+    <t>APC8-02</t>
+  </si>
+  <si>
+    <t>APL10-02</t>
+  </si>
+  <si>
+    <t>APL10-03</t>
+  </si>
+  <si>
+    <t>进气节流阀</t>
+  </si>
+  <si>
+    <t>ASL8-01B</t>
+  </si>
+  <si>
+    <t>出气节流阀</t>
+  </si>
+  <si>
+    <t>ASL8-01</t>
+  </si>
+  <si>
+    <t>消音器</t>
+  </si>
+  <si>
+    <t>BSL-01</t>
+  </si>
+  <si>
+    <t>BSL-02</t>
+  </si>
+  <si>
+    <t>回信器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥瑞特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感应式回信器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津百利二通公司</t>
+  </si>
+  <si>
+    <t>直装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3r/min</t>
+  </si>
+  <si>
+    <t>普通开关型</t>
+  </si>
+  <si>
+    <t>AC220V</t>
+  </si>
+  <si>
+    <t>IP67</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>无防爆</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKD-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛凯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40N.m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行器品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行器品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动执行器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百利二通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT5-1</t>
-  </si>
-  <si>
-    <t>QT10-1</t>
-  </si>
-  <si>
-    <t>QT15-1</t>
-  </si>
-  <si>
-    <t>QT20-1</t>
-  </si>
-  <si>
-    <t>QT30-0.5</t>
-  </si>
-  <si>
-    <t>QT30-1</t>
-  </si>
-  <si>
-    <t>QT40-0.5</t>
-  </si>
-  <si>
-    <t>QT40-1</t>
-  </si>
-  <si>
-    <t>QT60-0.5</t>
-  </si>
-  <si>
-    <t>气动执行器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-DA50</t>
-  </si>
-  <si>
-    <t>KT-DA63</t>
-  </si>
-  <si>
-    <t>KT-DA75</t>
-  </si>
-  <si>
-    <t>KT-DA88</t>
-  </si>
-  <si>
-    <t>KT-DA100</t>
-  </si>
-  <si>
-    <t>KT-DA125</t>
-  </si>
-  <si>
-    <t>KT-DA115</t>
-  </si>
-  <si>
-    <t>KT-DA160</t>
-  </si>
-  <si>
-    <t>KT-DA200</t>
-  </si>
-  <si>
-    <t>KT-DA240</t>
-  </si>
-  <si>
-    <t>KT-DA300</t>
-  </si>
-  <si>
-    <t>KT-DA350</t>
-  </si>
-  <si>
-    <t>KT-DA400</t>
-  </si>
-  <si>
-    <t>KT-SR-50</t>
-  </si>
-  <si>
-    <t>KT-SR-63</t>
-  </si>
-  <si>
-    <t>KT-SR-75</t>
-  </si>
-  <si>
-    <t>KT-SR-88</t>
-  </si>
-  <si>
-    <t>KT-SR-100</t>
-  </si>
-  <si>
-    <t>KT-SR-125</t>
-  </si>
-  <si>
-    <t>KT-SR-160</t>
-  </si>
-  <si>
-    <t>KT-SR-200</t>
-  </si>
-  <si>
-    <t>KT-SR-240</t>
-  </si>
-  <si>
-    <t>KT-SR-300</t>
-  </si>
-  <si>
-    <t>KT-SR-350</t>
-  </si>
-  <si>
-    <t>KT-SR-400</t>
-  </si>
-  <si>
-    <t>KT-SR-145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-SR-270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-DA145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-DA270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4M310-08/10</t>
-  </si>
-  <si>
-    <t>电磁阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚德客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4M320-08</t>
-  </si>
-  <si>
-    <t>AFC-2000</t>
-  </si>
-  <si>
-    <t>气源三联件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤减压阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFC3000</t>
-  </si>
-  <si>
-    <t>快速接头</t>
-  </si>
-  <si>
-    <t>APL6-01</t>
-  </si>
-  <si>
-    <t>APL6-02</t>
-  </si>
-  <si>
-    <t>APC8-01</t>
-  </si>
-  <si>
-    <t>APC8-02</t>
-  </si>
-  <si>
-    <t>APL10-02</t>
-  </si>
-  <si>
-    <t>APL10-03</t>
-  </si>
-  <si>
-    <t>进气节流阀</t>
-  </si>
-  <si>
-    <t>ASL8-01B</t>
-  </si>
-  <si>
-    <t>出气节流阀</t>
-  </si>
-  <si>
-    <t>ASL8-01</t>
-  </si>
-  <si>
-    <t>消音器</t>
-  </si>
-  <si>
-    <t>BSL-01</t>
-  </si>
-  <si>
-    <t>BSL-02</t>
-  </si>
-  <si>
-    <t>回信器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥瑞特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感应式回信器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津百利二通公司</t>
-  </si>
-  <si>
-    <t>直装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3r/min</t>
-  </si>
-  <si>
-    <t>普通开关型</t>
-  </si>
-  <si>
-    <t>AC220V</t>
-  </si>
-  <si>
-    <t>IP67</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>无防爆</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKD-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛凯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40N.m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产厂家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5385,7 +5385,7 @@
   <dimension ref="A36:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:O37"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5412,19 +5412,19 @@
   <sheetData>
     <row r="36" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>316</v>
@@ -5454,7 +5454,7 @@
         <v>324</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -5462,38 +5462,38 @@
         <v>8</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F37" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="L37" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="M37" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="N37" s="19">
         <v>1418.6</v>
@@ -5505,14 +5505,14 @@
         <v>9</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5532,16 +5532,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -5561,14 +5561,14 @@
         <v>27</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -5588,14 +5588,14 @@
         <v>28</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -5615,14 +5615,14 @@
         <v>29</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -5642,14 +5642,14 @@
         <v>30</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -5669,14 +5669,14 @@
         <v>31</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -5696,14 +5696,14 @@
         <v>32</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -5723,14 +5723,14 @@
         <v>33</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -5750,14 +5750,14 @@
         <v>34</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -5777,13 +5777,13 @@
         <v>60</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N48" s="10">
         <v>117.87068965517241</v>
@@ -5794,13 +5794,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="N49" s="10">
         <v>150.01724137931032</v>
@@ -5811,13 +5811,13 @@
         <v>62</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="N50" s="10">
         <v>178.26724137931032</v>
@@ -5828,13 +5828,13 @@
         <v>63</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N51" s="10">
         <v>209.43965517241381</v>
@@ -5845,13 +5845,13 @@
         <v>64</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N52" s="10">
         <v>290.29310344827587</v>
@@ -5862,13 +5862,13 @@
         <v>65</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N53" s="10">
         <v>439.33620689655169</v>
@@ -5879,13 +5879,13 @@
         <v>66</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N54" s="10">
         <v>375</v>
@@ -5896,13 +5896,13 @@
         <v>67</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N55" s="10">
         <v>610.78448275862058</v>
@@ -5913,13 +5913,13 @@
         <v>68</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N56" s="10">
         <v>841.65517241379314</v>
@@ -5930,13 +5930,13 @@
         <v>69</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N57" s="10">
         <v>1554.7241379310346</v>
@@ -5947,13 +5947,13 @@
         <v>70</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N58" s="10">
         <v>2290.1982758620688</v>
@@ -5964,13 +5964,13 @@
         <v>71</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N59" s="10">
         <v>2769.474137931034</v>
@@ -5981,13 +5981,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N60" s="10">
         <v>4372.9051724137926</v>
@@ -5998,13 +5998,13 @@
         <v>73</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N61" s="10">
         <v>8162.3017241379303</v>
@@ -6015,13 +6015,13 @@
         <v>74</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N62" s="10">
         <v>11369.163793103447</v>
@@ -6032,13 +6032,13 @@
         <v>75</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N63" s="10">
         <v>139.30172413793102</v>
@@ -6049,13 +6049,13 @@
         <v>76</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N64" s="10">
         <v>181.18965517241381</v>
@@ -6066,13 +6066,13 @@
         <v>77</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N65" s="10">
         <v>220.15517241379311</v>
@@ -6083,13 +6083,13 @@
         <v>78</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N66" s="10">
         <v>264.9655172413793</v>
@@ -6100,13 +6100,13 @@
         <v>79</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N67" s="10">
         <v>400.37068965517238</v>
@@ -6117,13 +6117,13 @@
         <v>80</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N68" s="10">
         <v>551.36206896551721</v>
@@ -6134,13 +6134,13 @@
         <v>81</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N69" s="10">
         <v>832.88793103448268</v>
@@ -6151,13 +6151,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N70" s="10">
         <v>1177.7327586206895</v>
@@ -6168,13 +6168,13 @@
         <v>83</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N71" s="10">
         <v>2159.6637931034479</v>
@@ -6185,13 +6185,13 @@
         <v>84</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N72" s="10">
         <v>3477.6724137931037</v>
@@ -6202,13 +6202,13 @@
         <v>85</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N73" s="10">
         <v>4265.75</v>
@@ -6219,13 +6219,13 @@
         <v>86</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N74" s="10">
         <v>7301.1637931034484</v>
@@ -6236,13 +6236,13 @@
         <v>87</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N75" s="10">
         <v>10800.26724137931</v>
@@ -6253,13 +6253,13 @@
         <v>88</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N76" s="10">
         <v>14097.724137931034</v>
@@ -6270,13 +6270,13 @@
         <v>89</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N77" s="9">
         <v>94</v>
@@ -6287,13 +6287,13 @@
         <v>90</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N78" s="9">
         <v>170</v>
@@ -6304,13 +6304,13 @@
         <v>91</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N79" s="9">
         <v>520</v>
@@ -6321,13 +6321,13 @@
         <v>92</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N80" s="9">
         <v>101</v>
@@ -6338,13 +6338,13 @@
         <v>93</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N81" s="9">
         <v>139</v>
@@ -6355,13 +6355,13 @@
         <v>94</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -6380,13 +6380,13 @@
         <v>95</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -6405,13 +6405,13 @@
         <v>96</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -6430,13 +6430,13 @@
         <v>97</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -6455,13 +6455,13 @@
         <v>98</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -6480,13 +6480,13 @@
         <v>99</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -6505,13 +6505,13 @@
         <v>100</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N88" s="11">
         <v>9</v>
@@ -6522,13 +6522,13 @@
         <v>101</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N89" s="9">
         <v>9</v>
@@ -6539,13 +6539,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N90" s="9">
         <v>2</v>
@@ -6556,13 +6556,13 @@
         <v>103</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N91" s="9">
         <v>3.3</v>
@@ -6573,13 +6573,13 @@
         <v>104</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N92" s="9">
         <v>65</v>
@@ -6590,10 +6590,10 @@
         <v>105</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N93" s="9">
         <v>95</v>
